--- a/Project-A-Apex-Footwear/Analisi_Rischio_Apex_Footwear.xlsx
+++ b/Project-A-Apex-Footwear/Analisi_Rischio_Apex_Footwear.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="460" windowWidth="18600" windowHeight="16240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="8540" yWindow="460" windowWidth="18600" windowHeight="16240" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario Asset" sheetId="1" r:id="rId1"/>
     <sheet name="Valutazione Rischio" sheetId="2" r:id="rId2"/>
     <sheet name="Piano di Trattamento (RTP)" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard Matrice" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -233,15 +234,57 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -249,13 +292,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,6 +444,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -270,27 +508,7 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -318,26 +536,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -630,135 +828,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>4</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <f>MAX(E2:G2)</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:H5" si="0">MAX(E3:G3)</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -788,135 +986,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <f>D2*E2</f>
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F5" si="0">D3*E3</f>
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>1</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>9</formula>
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
@@ -929,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -943,88 +1141,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1200</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>500</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>300</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f t="array" ref="B2">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=1)*('Valutazione Rischio'!$E$2:$E$5=5), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f t="array" ref="C2">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=2)*('Valutazione Rischio'!$E$2:$E$5=5), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f t="array" ref="D2">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=3)*('Valutazione Rischio'!$E$2:$E$5=5), 0)), "")</f>
+        <v>R02</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f t="array" ref="E2">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=4)*('Valutazione Rischio'!$E$2:$E$5=5), 0)), "")</f>
+        <v>R01</v>
+      </c>
+      <c r="F2" s="17" t="str">
+        <f t="array" ref="F2">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=5)*('Valutazione Rischio'!$E$2:$E$5=5), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18" t="str">
+        <f t="array" ref="B3">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=1)*('Valutazione Rischio'!$E$2:$E$5=4), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f t="array" ref="C3">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=2)*('Valutazione Rischio'!$E$2:$E$5=4), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f t="array" ref="D3">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=3)*('Valutazione Rischio'!$E$2:$E$5=4), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="E3" s="15" t="str">
+        <f t="array" ref="E3">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=4)*('Valutazione Rischio'!$E$2:$E$5=4), 0)), "")</f>
+        <v>R03</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f t="array" ref="F3">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=5)*('Valutazione Rischio'!$E$2:$E$5=4), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f t="array" ref="B4">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=1)*('Valutazione Rischio'!$E$2:$E$5=3), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f t="array" ref="C4">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=2)*('Valutazione Rischio'!$E$2:$E$5=3), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f t="array" ref="D4">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=3)*('Valutazione Rischio'!$E$2:$E$5=3), 0)), "")</f>
+        <v>R04</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="array" ref="E4">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=4)*('Valutazione Rischio'!$E$2:$E$5=3), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f t="array" ref="F4">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=5)*('Valutazione Rischio'!$E$2:$E$5=3), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f t="array" ref="B5">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=1)*('Valutazione Rischio'!$E$2:$E$5=2), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="C5" s="14" t="str">
+        <f t="array" ref="C5">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=2)*('Valutazione Rischio'!$E$2:$E$5=2), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="array" ref="D5">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=3)*('Valutazione Rischio'!$E$2:$E$5=2), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="array" ref="E5">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=4)*('Valutazione Rischio'!$E$2:$E$5=2), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="F5" s="21" t="str">
+        <f t="array" ref="F5">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=5)*('Valutazione Rischio'!$E$2:$E$5=2), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="str">
+        <f t="array" ref="B6">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=1)*('Valutazione Rischio'!$E$2:$E$5=1), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f t="array" ref="C6">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=2)*('Valutazione Rischio'!$E$2:$E$5=1), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f t="array" ref="D6">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=3)*('Valutazione Rischio'!$E$2:$E$5=1), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="E6" s="23" t="str">
+        <f t="array" ref="E6">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=4)*('Valutazione Rischio'!$E$2:$E$5=1), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="F6" s="22" t="str">
+        <f t="array" ref="F6">IFERROR(INDEX('Valutazione Rischio'!$A$2:$A$5, MATCH(1, ('Valutazione Rischio'!$D$2:$D$5=5)*('Valutazione Rischio'!$E$2:$E$5=1), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
